--- a/biology/Zoologie/Climacoceratidae/Climacoceratidae.xlsx
+++ b/biology/Zoologie/Climacoceratidae/Climacoceratidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Climacoceratidae (« cornes échelonnées ») sont une famille fossile d'ongulés artiodactyles ressemblant grossièrement à des cerfs qui vivaient au Miocène, principalement en Afrique  Ils sont proches des ancêtres des girafes, certains genres comme Prolibytherium ayant à l'origine été identifiés comme des girafes.
 </t>
@@ -511,13 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les climacoceratidés, c'est-à-dire les membres de ce qui est aujourd'hui leur genre-type Climacoceras, ont d'abord été placés dans la famille des palaeomerycidés, puis dans celle des giraffidés. En 1978, William Roger Hamilton (d) a créé une nouvelle famille, proche des Giraffidae[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les climacoceratidés, c'est-à-dire les membres de ce qui est aujourd'hui leur genre-type Climacoceras, ont d'abord été placés dans la famille des palaeomerycidés, puis dans celle des giraffidés. En 1978, William Roger Hamilton (d) a créé une nouvelle famille, proche des Giraffidae,.
 Ils se distinguent des girafes par le fait que leurs ossicônes dérivent d'os du crâne différents.
-Fossiles
-Selon Paleobiology Database en 2023, le nombre de collections de fossiles est de dix[2] :
-Miocène : une collection d'Égypte, six du Kenya, deux de Lybie, une du Pakistan[2].</t>
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sous-familles</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon Paleobiology Database en 2023, deux sous-familles sont référencées[2] :
-†Climacoceratinae Hamilton, 1978
-†Sperrgebietomerycinae Morales et al., 1999[2]</t>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de collections de fossiles est de dix :
+Miocène : une collection d'Égypte, six du Kenya, deux de Lybie, une du Pakistan.</t>
         </is>
       </c>
     </row>
@@ -574,12 +591,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sous-familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, deux sous-familles sont référencées :
+†Climacoceratinae Hamilton, 1978
+†Sperrgebietomerycinae Morales et al., 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Climacoceratidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Climacoceratidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 juillet 2021)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (11 juillet 2021) :
 genre Climacoceras MacInnes, 1936 †
 genre Orangemeryx Morales, Soria &amp; Pickford, 1999 †
 genre Prolibytherium Arambourg, 1961 †
